--- a/02_Input/00_Variable-List-2023.xlsx
+++ b/02_Input/00_Variable-List-2023.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliia/Library/CloudStorage/GoogleDrive-cecilia.jona@gmail.com/My Drive/PandC/EKLEMS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/faa16466cf8c1efc/Documents/GitHub/BSE_Macro_Accounters/02_Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{3E45460C-7B41-B14B-B7A8-8857A40EA115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16100"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable-List-2023" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1243,7 +1256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1782,9 +1795,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1822,7 +1835,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1928,7 +1941,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2070,23 +2083,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2094,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2102,7 +2115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2113,7 +2126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2124,7 +2137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2135,7 +2148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2146,7 +2159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2157,7 +2170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2168,7 +2181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2179,7 +2192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2190,7 +2203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2201,7 +2214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2212,7 +2225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2223,7 +2236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2231,7 +2244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2242,7 +2255,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2253,7 +2266,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2264,7 +2277,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2272,7 +2285,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2283,7 +2296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2294,7 +2307,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2305,7 +2318,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2316,7 +2329,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2327,7 +2340,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2338,7 +2351,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2349,7 +2362,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2360,7 +2373,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2371,7 +2384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2382,7 +2395,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2393,7 +2406,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2404,7 +2417,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2415,7 +2428,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2426,7 +2439,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2437,7 +2450,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2448,7 +2461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2459,7 +2472,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2470,7 +2483,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2481,7 +2494,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2492,7 +2505,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2503,7 +2516,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2514,7 +2527,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2525,7 +2538,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2536,7 +2549,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2547,7 +2560,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2558,7 +2571,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2569,7 +2582,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2580,7 +2593,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2591,7 +2604,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2602,7 +2615,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2613,7 +2626,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2624,7 +2637,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2635,7 +2648,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2646,7 +2659,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2657,7 +2670,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2668,7 +2681,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2679,7 +2692,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2690,7 +2703,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2701,7 +2714,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2712,7 +2725,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2723,7 +2736,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2734,7 +2747,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2745,7 +2758,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2756,7 +2769,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2767,7 +2780,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2778,7 +2791,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2789,7 +2802,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2800,7 +2813,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2811,7 +2824,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2822,7 +2835,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2833,7 +2846,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2844,7 +2857,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2855,7 +2868,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2866,7 +2879,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2877,7 +2890,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2888,7 +2901,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2899,7 +2912,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2910,7 +2923,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2921,7 +2934,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2932,7 +2945,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2943,7 +2956,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2954,7 +2967,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2965,7 +2978,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2976,7 +2989,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2987,7 +3000,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2998,7 +3011,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3009,7 +3022,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3020,7 +3033,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3031,7 +3044,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3042,7 +3055,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3053,7 +3066,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3064,7 +3077,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3075,7 +3088,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3086,7 +3099,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3097,7 +3110,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3108,7 +3121,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3119,7 +3132,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3130,7 +3143,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3141,7 +3154,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3152,7 +3165,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3163,7 +3176,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3174,7 +3187,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3185,7 +3198,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3196,7 +3209,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3207,7 +3220,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3218,7 +3231,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3229,7 +3242,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3240,7 +3253,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3251,7 +3264,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3262,7 +3275,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3273,7 +3286,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3284,7 +3297,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3295,7 +3308,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3306,7 +3319,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3317,7 +3330,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3328,7 +3341,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3339,7 +3352,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3350,7 +3363,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3361,7 +3374,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3372,7 +3385,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3383,7 +3396,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3394,7 +3407,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3405,7 +3418,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3416,7 +3429,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3427,7 +3440,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3438,7 +3451,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3449,7 +3462,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3460,7 +3473,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3471,7 +3484,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3482,7 +3495,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3493,7 +3506,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3504,7 +3517,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3515,7 +3528,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3526,7 +3539,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3537,7 +3550,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3548,7 +3561,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3559,7 +3572,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3570,7 +3583,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3581,7 +3594,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3592,7 +3605,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3603,7 +3616,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3614,7 +3627,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3625,7 +3638,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3636,7 +3649,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3647,7 +3660,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3658,7 +3671,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3669,7 +3682,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3680,7 +3693,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3691,7 +3704,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3702,7 +3715,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3713,7 +3726,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3724,7 +3737,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3735,7 +3748,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3746,7 +3759,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3757,7 +3770,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3768,7 +3781,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3779,7 +3792,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3790,7 +3803,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3801,7 +3814,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>157</v>
       </c>
@@ -3812,7 +3825,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A159">
         <v>158</v>
       </c>
@@ -3823,7 +3836,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A160">
         <v>159</v>
       </c>
@@ -3834,7 +3847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A161">
         <v>160</v>
       </c>
@@ -3845,7 +3858,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A162">
         <v>161</v>
       </c>
@@ -3856,7 +3869,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A163">
         <v>162</v>
       </c>
@@ -3867,7 +3880,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A164">
         <v>163</v>
       </c>
@@ -3878,7 +3891,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A165">
         <v>164</v>
       </c>
@@ -3889,7 +3902,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A166">
         <v>165</v>
       </c>
@@ -3900,7 +3913,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A167">
         <v>166</v>
       </c>
@@ -3911,7 +3924,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A168">
         <v>167</v>
       </c>
@@ -3922,7 +3935,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A169">
         <v>168</v>
       </c>
@@ -3933,7 +3946,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A170">
         <v>169</v>
       </c>
@@ -3944,7 +3957,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A171">
         <v>170</v>
       </c>
@@ -3955,7 +3968,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A172">
         <v>171</v>
       </c>
@@ -3966,7 +3979,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A173">
         <v>172</v>
       </c>
@@ -3977,7 +3990,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A174">
         <v>173</v>
       </c>
@@ -3988,7 +4001,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A175">
         <v>174</v>
       </c>
@@ -3999,7 +4012,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4010,7 +4023,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4021,7 +4034,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4032,7 +4045,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4043,7 +4056,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4054,7 +4067,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4065,7 +4078,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4076,7 +4089,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4087,7 +4100,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4098,7 +4111,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4109,7 +4122,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4120,7 +4133,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4131,7 +4144,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4142,7 +4155,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4153,7 +4166,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A190">
         <v>189</v>
       </c>
@@ -4164,7 +4177,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A191">
         <v>190</v>
       </c>
@@ -4175,7 +4188,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A192">
         <v>191</v>
       </c>
@@ -4186,7 +4199,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A193">
         <v>192</v>
       </c>
@@ -4197,7 +4210,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A194">
         <v>193</v>
       </c>
@@ -4208,7 +4221,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A195">
         <v>194</v>
       </c>
@@ -4219,7 +4232,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A196">
         <v>195</v>
       </c>
@@ -4230,7 +4243,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A197">
         <v>196</v>
       </c>
@@ -4241,7 +4254,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A198">
         <v>197</v>
       </c>
@@ -4252,7 +4265,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A199">
         <v>198</v>
       </c>
@@ -4263,7 +4276,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A200">
         <v>199</v>
       </c>
@@ -4274,7 +4287,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A201">
         <v>200</v>
       </c>
@@ -4285,7 +4298,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A202">
         <v>201</v>
       </c>
@@ -4296,7 +4309,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A203">
         <v>202</v>
       </c>
@@ -4307,7 +4320,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A204">
         <v>203</v>
       </c>
@@ -4318,7 +4331,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A205">
         <v>204</v>
       </c>
@@ -4329,7 +4342,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A206">
         <v>205</v>
       </c>
@@ -4340,7 +4353,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A207">
         <v>206</v>
       </c>
@@ -4351,7 +4364,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A208">
         <v>207</v>
       </c>
@@ -4362,7 +4375,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A209">
         <v>208</v>
       </c>
@@ -4373,7 +4386,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A210">
         <v>209</v>
       </c>
@@ -4384,7 +4397,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A211">
         <v>210</v>
       </c>
@@ -4395,7 +4408,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A212">
         <v>211</v>
       </c>
@@ -4406,7 +4419,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A213">
         <v>212</v>
       </c>
@@ -4417,7 +4430,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A214">
         <v>213</v>
       </c>
@@ -4428,7 +4441,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A215">
         <v>214</v>
       </c>
@@ -4439,7 +4452,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A216">
         <v>215</v>
       </c>
@@ -4450,7 +4463,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A217">
         <v>216</v>
       </c>
@@ -4461,7 +4474,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A218">
         <v>217</v>
       </c>
@@ -4472,7 +4485,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A219">
         <v>218</v>
       </c>
@@ -4483,7 +4496,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A220">
         <v>219</v>
       </c>
@@ -4494,7 +4507,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A221">
         <v>220</v>
       </c>
@@ -4505,7 +4518,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A222">
         <v>221</v>
       </c>
@@ -4516,7 +4529,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A223">
         <v>222</v>
       </c>
@@ -4527,7 +4540,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A224">
         <v>223</v>
       </c>
@@ -4538,7 +4551,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A225">
         <v>224</v>
       </c>
@@ -4549,7 +4562,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A226">
         <v>225</v>
       </c>
@@ -4560,7 +4573,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A227">
         <v>226</v>
       </c>
@@ -4571,7 +4584,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A228">
         <v>227</v>
       </c>
@@ -4582,7 +4595,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A229">
         <v>228</v>
       </c>
@@ -4593,7 +4606,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A230">
         <v>229</v>
       </c>
@@ -4604,7 +4617,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A231">
         <v>230</v>
       </c>
@@ -4615,7 +4628,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A232">
         <v>231</v>
       </c>
@@ -4626,7 +4639,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A233">
         <v>232</v>
       </c>
@@ -4637,7 +4650,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A234">
         <v>233</v>
       </c>
@@ -4648,7 +4661,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A235">
         <v>234</v>
       </c>
@@ -4659,7 +4672,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A236">
         <v>235</v>
       </c>
@@ -4670,7 +4683,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A237">
         <v>236</v>
       </c>
@@ -4681,7 +4694,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A238">
         <v>237</v>
       </c>
@@ -4692,7 +4705,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A239">
         <v>238</v>
       </c>
@@ -4703,7 +4716,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A240">
         <v>239</v>
       </c>
